--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/Semesters/Fall 2024/CSCI 596/CS_596_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{CD725CA2-EEA8-364B-B369-0E103DF089DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D6132F-F707-AE42-BBC2-506BCEA79E12}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{CD725CA2-EEA8-364B-B369-0E103DF089DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F8B9D5-9623-5246-ACE5-242C054929EB}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1120" windowWidth="33220" windowHeight="18080" xr2:uid="{8737B53E-4B90-0A4D-B5F7-B5F8E17844B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{8737B53E-4B90-0A4D-B5F7-B5F8E17844B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t># P</t>
   </si>
@@ -68,7 +68,10 @@
     <t>factor_constr</t>
   </si>
   <si>
-    <t>Weak Scaling</t>
+    <t>Weak Scaling (w.r.t. # nodes)</t>
+  </si>
+  <si>
+    <t>Weak Scaling (w.r.t. # of constraints)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -146,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -164,13 +167,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Weak scaling</a:t>
+              <a:t>Weak scaling (w.r.t # of nodes)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1203,6 +1212,508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weak scaling (w.r.t # of constraints)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94285714285714295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86842105263157898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16BB-EF4C-BAAF-7C08FBA15A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="201445391"/>
+        <c:axId val="50815919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="201445391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50815919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50815919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201445391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1283,6 +1794,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2315,20 +2866,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403457</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146515</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>49561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2355,16 +3422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>499326</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2384,6 +3451,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392573</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588168</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69153</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D4F27F-85F3-5144-8214-AAF324444656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2713,21 +3818,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE36169F-A925-0C44-A684-A5F9A01CC614}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="14.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
     <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="2"/>
-    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="16" style="2" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="2"/>
@@ -2735,17 +3841,17 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="A2" s="1"/>
@@ -2972,7 +4078,7 @@
         <v>7.8395061728395063</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" ref="P5:P6" si="4">N6/$N$3</f>
+        <f t="shared" ref="P6" si="4">N6/$N$3</f>
         <v>60.715328467153284</v>
       </c>
     </row>
@@ -2992,9 +4098,11 @@
     <row r="8" spans="1:16">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3002,12 +4110,61 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
+    <row r="9" spans="1:16" ht="17">
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="J10" s="14">
+        <f>$I$10/I10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="H11" s="11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" ref="J11:J12" si="5">$I$10/I11</f>
+        <v>0.94285714285714295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="H12" s="11">
+        <v>16</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/Semesters/Fall 2024/CSCI 596/CS_596_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{CD725CA2-EEA8-364B-B369-0E103DF089DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F8B9D5-9623-5246-ACE5-242C054929EB}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{CD725CA2-EEA8-364B-B369-0E103DF089DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39E75FB4-1991-BF40-80C2-A01AF5FDC5CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{8737B53E-4B90-0A4D-B5F7-B5F8E17844B6}"/>
   </bookViews>
@@ -3423,15 +3423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>92926</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114765</xdr:rowOff>
+      <xdr:colOff>432577</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>159068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>499326</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>108415</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3458,16 +3458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>392573</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171062</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>75503</xdr:rowOff>
+      <xdr:rowOff>90270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>588168</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558634</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>69153</xdr:rowOff>
+      <xdr:rowOff>83920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3820,8 +3820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE36169F-A925-0C44-A684-A5F9A01CC614}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
